--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XinYi/Documents/Python/publication/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cliu\Desktop\grants-analysis-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,6 +394,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -668,14 +671,14 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -697,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -708,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -719,7 +722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -730,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -741,7 +744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -752,7 +755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -763,7 +766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -774,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -785,7 +788,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -796,7 +799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -807,7 +810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -818,7 +821,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -829,7 +832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -840,7 +843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -851,7 +854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -862,7 +865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -873,7 +876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -884,7 +887,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -895,7 +898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -906,7 +909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -917,7 +920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -928,7 +931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -939,7 +942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -950,7 +953,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -961,7 +964,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -972,7 +975,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -983,7 +986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -994,7 +997,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>105</v>
       </c>
